--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -206,10 +206,7 @@
       <t>fang'dong</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zu'k</t>
+      <t>fang'dongzu'k</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -260,11 +257,115 @@
       <t>xin'z</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>duo'ci</t>
+      <t>duo'cizhang'd</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhang'd</t>
-    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝签约单操作记录中蘑菇宝贷款自动扣款记录过多</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>BS，房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>顾宝琬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝账单支付由线上切回线下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾宝琬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财租金宝房东信用额度计算历史表调整值为0问题修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝逾期给房东和租客发送短信和推送异常</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝账单到期提前通知的消息无法发送</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财蘑菇宝还款逾期列表显示签约人和服务人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App租金宝列表翻页不正常，造成房东APP看不到买回单</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东端显示拉卡拉的贷款保证金有误</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App&amp;PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,8 +656,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,12 +757,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="35" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="35"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
@@ -1064,7 +1199,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1185,9 +1320,15 @@
       <c r="L2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1229,9 +1370,15 @@
       <c r="L3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1273,9 +1420,15 @@
       <c r="L4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1317,9 +1470,15 @@
       <c r="L5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1361,202 +1520,372 @@
       <c r="L6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="28"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29"/>
+      <c r="B12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version 5.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.0 新特性|Fix Bug'!$A$1:$S$2</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -361,11 +361,50 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>通过</t>
+    <t>聚有财蘑菇宝申请列表增加蘑菇及资方审核时间戳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>能</t>
+    <t>聚有财聚有财BS后台部分表单增加导出功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财租金宝财务放款列表增加租赁起租日、资方放款时间、月租金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财房东App和PC蘑菇宝申请帮助</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财租金宝信用及费率详情增加C和D的显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉特殊数据（拉卡拉）状态与BS不同步修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财分期服务协议静态文本空出租金及期数等值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王园</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客/房东端租金宝所有相关金额加千分位</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -1196,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,15 +1362,9 @@
       <c r="L2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="16">
-        <v>42597</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1370,15 +1406,9 @@
       <c r="L3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="16">
-        <v>42597</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1420,15 +1450,9 @@
       <c r="L4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="16">
-        <v>42597</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1470,15 +1494,9 @@
       <c r="L5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="16">
-        <v>42597</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1520,77 +1538,71 @@
       <c r="L6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="16">
-        <v>42597</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="28"/>
       <c r="T6" s="29"/>
     </row>
-    <row r="7" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>42</v>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="34">
-        <v>42606</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="34">
-        <v>42606</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42597</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="16">
+        <v>42597</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M7" s="24"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>45</v>
@@ -1606,7 +1618,7 @@
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>47</v>
@@ -1614,27 +1626,27 @@
       <c r="L8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
       <c r="S8" s="37"/>
       <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>45</v>
@@ -1650,7 +1662,7 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>47</v>
@@ -1658,9 +1670,9 @@
       <c r="L9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -1672,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>45</v>
@@ -1694,35 +1706,35 @@
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
       <c r="S10" s="37"/>
       <c r="T10" s="38"/>
     </row>
-    <row r="11" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>45</v>
@@ -1738,7 +1750,7 @@
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>57</v>
@@ -1746,9 +1758,9 @@
       <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -1759,11 +1771,11 @@
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>61</v>
+      <c r="B12" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>53</v>
@@ -1782,7 +1794,7 @@
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="35" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>57</v>
@@ -1790,27 +1802,27 @@
       <c r="L12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
       <c r="S12" s="37"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>45</v>
@@ -1834,27 +1846,27 @@
       <c r="L13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
       <c r="S13" s="37"/>
       <c r="T13" s="38"/>
     </row>
-    <row r="14" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>45</v>
@@ -1870,58 +1882,102 @@
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="35" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
       <c r="S14" s="37"/>
       <c r="T14" s="38"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+    <row r="15" spans="1:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="34">
+        <v>42606</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="34">
+        <v>42606</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M15" s="24"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="16">
+        <v>42615</v>
+      </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M16" s="24"/>
       <c r="N16" s="16"/>
       <c r="O16" s="24"/>
@@ -1932,18 +1988,40 @@
       <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="16">
+        <v>42615</v>
+      </c>
       <c r="I17" s="15"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M17" s="24"/>
       <c r="N17" s="16"/>
       <c r="O17" s="24"/>
@@ -1953,19 +2031,41 @@
       <c r="S17" s="28"/>
       <c r="T17" s="29"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="16">
+        <v>42615</v>
+      </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M18" s="24"/>
       <c r="N18" s="16"/>
       <c r="O18" s="24"/>
@@ -1976,18 +2076,40 @@
       <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="16">
+        <v>42615</v>
+      </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M19" s="24"/>
       <c r="N19" s="16"/>
       <c r="O19" s="24"/>
@@ -1998,18 +2120,40 @@
       <c r="T19" s="29"/>
     </row>
     <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="16">
+        <v>42615</v>
+      </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="J20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M20" s="24"/>
       <c r="N20" s="16"/>
       <c r="O20" s="24"/>
@@ -2020,18 +2164,40 @@
       <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="16">
+        <v>42615</v>
+      </c>
       <c r="I21" s="15"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="J21" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M21" s="24"/>
       <c r="N21" s="16"/>
       <c r="O21" s="24"/>
@@ -2041,19 +2207,41 @@
       <c r="S21" s="28"/>
       <c r="T21" s="29"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="16">
+        <v>42615</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="16">
+        <v>42615</v>
+      </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="J22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="M22" s="24"/>
       <c r="N22" s="16"/>
       <c r="O22" s="24"/>
@@ -2065,7 +2253,7 @@
     </row>
     <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2087,7 +2275,7 @@
     </row>
     <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2109,7 +2297,7 @@
     </row>
     <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2131,7 +2319,7 @@
     </row>
     <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -2153,7 +2341,7 @@
     </row>
     <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2175,7 +2363,7 @@
     </row>
     <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2197,17 +2385,17 @@
     </row>
     <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="24"/>
       <c r="N29" s="16"/>
       <c r="O29" s="24"/>
@@ -2219,7 +2407,7 @@
     </row>
     <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="18"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2242,17 +2430,17 @@
     <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="16"/>
       <c r="O31" s="24"/>
       <c r="P31" s="21"/>
@@ -2296,8 +2484,8 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="20"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="24"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -2328,7 +2516,7 @@
       <c r="T34" s="29"/>
     </row>
     <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
       <c r="D35" s="15"/>
@@ -2341,12 +2529,12 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="24"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="19"/>
+      <c r="S35" s="28"/>
       <c r="T35" s="29"/>
     </row>
     <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2371,8 +2559,8 @@
       <c r="S36" s="19"/>
       <c r="T36" s="29"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
       <c r="D37" s="15"/>
@@ -2386,11 +2574,12 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="22"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="22"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="29"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
@@ -3405,7 +3594,7 @@
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="21"/>
+      <c r="E86" s="15"/>
       <c r="F86" s="23"/>
       <c r="G86" s="21"/>
       <c r="H86" s="23"/>
@@ -3526,11 +3715,11 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="D92" s="15"/>
       <c r="E92" s="21"/>
       <c r="F92" s="23"/>
       <c r="G92" s="21"/>
@@ -4928,6 +5117,9 @@
       <c r="M158" s="21"/>
       <c r="N158" s="23"/>
       <c r="O158" s="22"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
@@ -5436,6 +5628,17 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="21"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="21"/>
       <c r="M187" s="21"/>
       <c r="N187" s="23"/>
       <c r="O187" s="22"/>
@@ -5450,6 +5653,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
+      <c r="M189" s="21"/>
       <c r="N189" s="23"/>
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
@@ -5462,6 +5666,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="21"/>
+      <c r="N191" s="23"/>
       <c r="O191" s="22"/>
       <c r="S191" s="22"/>
     </row>
@@ -5469,6 +5674,11 @@
       <c r="A192" s="21"/>
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A193" s="21"/>
+      <c r="O193" s="22"/>
+      <c r="S193" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S2"/>

--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version 5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -405,6 +405,14 @@
   </si>
   <si>
     <t>租客/房东端租金宝所有相关金额加千分位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1249,7 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,9 +1370,15 @@
       <c r="L2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
@@ -1406,9 +1420,15 @@
       <c r="L3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1494,9 +1514,15 @@
       <c r="L5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1538,9 +1564,15 @@
       <c r="L6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1582,9 +1614,15 @@
       <c r="L7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42597</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
@@ -1626,9 +1664,15 @@
       <c r="L8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1670,9 +1714,15 @@
       <c r="L9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -1714,9 +1764,15 @@
       <c r="L10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
@@ -1758,9 +1814,15 @@
       <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -1802,9 +1864,15 @@
       <c r="L12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -1846,9 +1914,15 @@
       <c r="L13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -1890,9 +1964,15 @@
       <c r="L14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="24"/>
+      <c r="M14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
@@ -1934,9 +2014,15 @@
       <c r="L15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="24"/>
+      <c r="M15" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="34">
+        <v>42606</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
@@ -1978,9 +2064,15 @@
       <c r="L16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -2022,9 +2114,15 @@
       <c r="L17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -2066,9 +2164,15 @@
       <c r="L18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="24"/>
+      <c r="M18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
@@ -2110,9 +2214,15 @@
       <c r="L19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="24"/>
+      <c r="M19" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -2154,9 +2264,15 @@
       <c r="L20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -2198,9 +2314,15 @@
       <c r="L21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="24"/>
+      <c r="M21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
@@ -2242,9 +2364,15 @@
       <c r="L22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="24"/>
+      <c r="M22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="16">
+        <v>42615</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
